--- a/docs/Battleship Grid.xlsx
+++ b/docs/Battleship Grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipat\Desktop\Github\Better-Battleships\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52368C2-C561-4682-AA29-C4986E997598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FF632B-7F84-477B-9A59-B3ABF9F8AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="1992" windowWidth="30936" windowHeight="17496" xr2:uid="{4CD89D96-3399-462F-AB48-49793110FE25}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{4CD89D96-3399-462F-AB48-49793110FE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +91,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +124,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -370,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,6 +465,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54B54C0-B186-4A32-B55C-14E67C2F4021}">
   <dimension ref="B1:AV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1640,6 +1695,36 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="4"/>
+      <c r="AM15" s="29">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="30">
+        <v>1</v>
+      </c>
+      <c r="AO15" s="30">
+        <v>2</v>
+      </c>
+      <c r="AP15" s="30">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="30">
+        <v>4</v>
+      </c>
+      <c r="AR15" s="30">
+        <v>5</v>
+      </c>
+      <c r="AS15" s="30">
+        <v>6</v>
+      </c>
+      <c r="AT15" s="30">
+        <v>7</v>
+      </c>
+      <c r="AU15" s="30">
+        <v>8</v>
+      </c>
+      <c r="AV15" s="31">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
@@ -1689,8 +1774,36 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="6"/>
+      <c r="AM16" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="34">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="34">
+        <v>2</v>
+      </c>
+      <c r="AQ16" s="34">
+        <v>3</v>
+      </c>
+      <c r="AR16" s="34">
+        <v>4</v>
+      </c>
+      <c r="AS16" s="35">
+        <v>5</v>
+      </c>
+      <c r="AT16" s="35">
+        <v>6</v>
+      </c>
+      <c r="AU16" s="35">
+        <v>7</v>
+      </c>
+      <c r="AV16" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>3</v>
       </c>
@@ -1732,8 +1845,36 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="6"/>
+      <c r="AM17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="35">
+        <v>2</v>
+      </c>
+      <c r="AQ17" s="34">
+        <v>3</v>
+      </c>
+      <c r="AR17" s="35">
+        <v>4</v>
+      </c>
+      <c r="AS17" s="37">
+        <v>5</v>
+      </c>
+      <c r="AT17" s="37">
+        <v>6</v>
+      </c>
+      <c r="AU17" s="37">
+        <v>7</v>
+      </c>
+      <c r="AV17" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
         <v>4</v>
       </c>
@@ -1779,8 +1920,36 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="19"/>
       <c r="AJ18" s="6"/>
+      <c r="AM18" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="34">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="34">
+        <v>2</v>
+      </c>
+      <c r="AQ18" s="34">
+        <v>3</v>
+      </c>
+      <c r="AR18" s="35">
+        <v>4</v>
+      </c>
+      <c r="AS18" s="35">
+        <v>5</v>
+      </c>
+      <c r="AT18" s="35">
+        <v>6</v>
+      </c>
+      <c r="AU18" s="34">
+        <v>7</v>
+      </c>
+      <c r="AV18" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
         <v>5</v>
       </c>
@@ -1830,8 +1999,36 @@
       </c>
       <c r="AI19" s="19"/>
       <c r="AJ19" s="6"/>
+      <c r="AM19" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="35">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="35">
+        <v>3</v>
+      </c>
+      <c r="AR19" s="35">
+        <v>4</v>
+      </c>
+      <c r="AS19" s="35">
+        <v>5</v>
+      </c>
+      <c r="AT19" s="35">
+        <v>6</v>
+      </c>
+      <c r="AU19" s="34">
+        <v>7</v>
+      </c>
+      <c r="AV19" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="20" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
         <v>6</v>
       </c>
@@ -1871,8 +2068,36 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="19"/>
       <c r="AJ20" s="6"/>
+      <c r="AM20" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="33"/>
+      <c r="AO20" s="35">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="35">
+        <v>2</v>
+      </c>
+      <c r="AQ20" s="34">
+        <v>3</v>
+      </c>
+      <c r="AR20" s="38">
+        <v>4</v>
+      </c>
+      <c r="AS20" s="35">
+        <v>5</v>
+      </c>
+      <c r="AT20" s="35">
+        <v>6</v>
+      </c>
+      <c r="AU20" s="34">
+        <v>7</v>
+      </c>
+      <c r="AV20" s="36">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
         <v>7</v>
       </c>
@@ -1912,8 +2137,38 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="6"/>
+      <c r="AM21" s="32">
+        <v>2</v>
+      </c>
+      <c r="AN21" s="34">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="35">
+        <v>2</v>
+      </c>
+      <c r="AP21" s="35">
+        <v>3</v>
+      </c>
+      <c r="AQ21" s="34">
+        <v>4</v>
+      </c>
+      <c r="AR21" s="38">
+        <v>5</v>
+      </c>
+      <c r="AS21" s="35">
+        <v>6</v>
+      </c>
+      <c r="AT21" s="35">
+        <v>7</v>
+      </c>
+      <c r="AU21" s="35">
+        <v>8</v>
+      </c>
+      <c r="AV21" s="36">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
         <v>8</v>
       </c>
@@ -1961,8 +2216,38 @@
         <v>11</v>
       </c>
       <c r="AJ22" s="6"/>
+      <c r="AM22" s="32">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="34">
+        <v>2</v>
+      </c>
+      <c r="AO22" s="35">
+        <v>3</v>
+      </c>
+      <c r="AP22" s="35">
+        <v>4</v>
+      </c>
+      <c r="AQ22" s="35">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="38">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="35">
+        <v>7</v>
+      </c>
+      <c r="AT22" s="35">
+        <v>8</v>
+      </c>
+      <c r="AU22" s="35">
+        <v>9</v>
+      </c>
+      <c r="AV22" s="36">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>9</v>
       </c>
@@ -2006,8 +2291,38 @@
       <c r="AH23" s="19"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="6"/>
+      <c r="AM23" s="32">
+        <v>4</v>
+      </c>
+      <c r="AN23" s="35">
+        <v>3</v>
+      </c>
+      <c r="AO23" s="38">
+        <v>4</v>
+      </c>
+      <c r="AP23" s="35">
+        <v>5</v>
+      </c>
+      <c r="AQ23" s="35">
+        <v>6</v>
+      </c>
+      <c r="AR23" s="38">
+        <v>7</v>
+      </c>
+      <c r="AS23" s="34">
+        <v>8</v>
+      </c>
+      <c r="AT23" s="34">
+        <v>9</v>
+      </c>
+      <c r="AU23" s="35">
+        <v>10</v>
+      </c>
+      <c r="AV23" s="36">
+        <v>11</v>
+      </c>
     </row>
-    <row r="24" spans="2:36" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:48" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="15">
         <v>10</v>
       </c>
@@ -2047,8 +2362,38 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="9"/>
+      <c r="AM24" s="39">
+        <v>5</v>
+      </c>
+      <c r="AN24" s="40">
+        <v>4</v>
+      </c>
+      <c r="AO24" s="40">
+        <v>5</v>
+      </c>
+      <c r="AP24" s="40">
+        <v>6</v>
+      </c>
+      <c r="AQ24" s="40">
+        <v>7</v>
+      </c>
+      <c r="AR24" s="41">
+        <v>8</v>
+      </c>
+      <c r="AS24" s="40">
+        <v>9</v>
+      </c>
+      <c r="AT24" s="40">
+        <v>10</v>
+      </c>
+      <c r="AU24" s="40">
+        <v>11</v>
+      </c>
+      <c r="AV24" s="42">
+        <v>12</v>
+      </c>
     </row>
-    <row r="25" spans="2:36" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:48" ht="50" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
